--- a/creatures.xlsx
+++ b/creatures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75C6897-75E1-44F3-BAEE-879C415FF99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E42A39-97AD-4FE4-8D1F-B9D9CBB5987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11085" yWindow="3075" windowWidth="21810" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>kwama warrior blighted</t>
   </si>
@@ -1182,13 +1182,19 @@
   </si>
   <si>
     <t>yagrum bagarn</t>
+  </si>
+  <si>
+    <t>Morrowind</t>
+  </si>
+  <si>
+    <t>OpenMW/TES3MP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -1224,10 +1238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1523,13 +1540,18 @@
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1539,8 +1561,9 @@
         <f t="array" ref="D2:D378">LOWER(B2:B378)</f>
         <v>alit</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1549,8 +1572,9 @@
       <c r="D3" s="1" t="str">
         <v>alit_blighted</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1559,8 +1583,9 @@
       <c r="D4" s="1" t="str">
         <v>alit_diseased</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1569,8 +1594,9 @@
       <c r="D5" s="1" t="str">
         <v>almalexia</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1579,8 +1605,9 @@
       <c r="D6" s="1" t="str">
         <v>almalexia_warrior</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1589,8 +1616,9 @@
       <c r="D7" s="1" t="str">
         <v>ancestor_ghost</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1599,8 +1627,9 @@
       <c r="D8" s="1" t="str">
         <v>ancestor_ghost_greater</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1609,8 +1638,9 @@
       <c r="D9" s="1" t="str">
         <v>ancestor_ghost_summon</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1619,8 +1649,9 @@
       <c r="D10" s="1" t="str">
         <v>ancestor_ghost_vabdas</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1629,8 +1660,9 @@
       <c r="D11" s="1" t="str">
         <v>ancestor_ghost_variner</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1639,8 +1671,9 @@
       <c r="D12" s="1" t="str">
         <v>ancestor_guardian_fgdd</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1649,8 +1682,9 @@
       <c r="D13" s="1" t="str">
         <v>ancestor_guardian_heler</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -1659,8 +1693,9 @@
       <c r="D14" s="1" t="str">
         <v>ancestor_mg_wisewoman</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -1669,8 +1704,9 @@
       <c r="D15" s="1" t="str">
         <v>ascended_sleeper</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1679,8 +1715,9 @@
       <c r="D16" s="1" t="str">
         <v>ash_ghoul</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -1689,8 +1726,9 @@
       <c r="D17" s="1" t="str">
         <v>ash_ghoul_fgr</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1699,8 +1737,9 @@
       <c r="D18" s="1" t="str">
         <v>ash_ghoul_ganel</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -1709,8 +1748,9 @@
       <c r="D19" s="1" t="str">
         <v>ash_ghoul_mulyn</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -1719,8 +1759,9 @@
       <c r="D20" s="1" t="str">
         <v>ash_slave</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -1729,8 +1770,9 @@
       <c r="D21" s="1" t="str">
         <v>ash_zombie</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -1739,8 +1781,9 @@
       <c r="D22" s="1" t="str">
         <v>ash_zombie_fgaz</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -1749,8 +1792,9 @@
       <c r="D23" s="1" t="str">
         <v>atronach_flame</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -1759,8 +1803,9 @@
       <c r="D24" s="1" t="str">
         <v>atronach_flame_az</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -1769,8 +1814,9 @@
       <c r="D25" s="1" t="str">
         <v>atronach_flame_summon</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -1779,8 +1825,9 @@
       <c r="D26" s="1" t="str">
         <v>atronach_flame_ttmk</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -1789,8 +1836,9 @@
       <c r="D27" s="1" t="str">
         <v>atronach_frost</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1799,8 +1847,9 @@
       <c r="D28" s="1" t="str">
         <v>atronach_frost_bm</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -1809,8 +1858,9 @@
       <c r="D29" s="1" t="str">
         <v>atronach_frost_gwai_uni</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -1819,8 +1869,9 @@
       <c r="D30" s="1" t="str">
         <v>atronach_frost_summon</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -1829,8 +1880,9 @@
       <c r="D31" s="1" t="str">
         <v>atronach_frost_ttmk</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -1839,8 +1891,9 @@
       <c r="D32" s="1" t="str">
         <v>atronach_storm</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -1849,8 +1902,9 @@
       <c r="D33" s="1" t="str">
         <v>atronach_storm_az</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -1859,8 +1913,9 @@
       <c r="D34" s="1" t="str">
         <v>atronach_storm_summon</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -1869,8 +1924,9 @@
       <c r="D35" s="1" t="str">
         <v>atronach_storm_ttmk</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -1879,8 +1935,9 @@
       <c r="D36" s="1" t="str">
         <v>bm skeleton champion gr</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -1889,8 +1946,9 @@
       <c r="D37" s="1" t="str">
         <v>bm_bear_be_unique</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -1899,8 +1957,9 @@
       <c r="D38" s="1" t="str">
         <v>bm_bear_black</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -1909,8 +1968,9 @@
       <c r="D39" s="1" t="str">
         <v>bm_bear_black_claw_uniq</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -1919,8 +1979,9 @@
       <c r="D40" s="1" t="str">
         <v>bm_bear_black_fat</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -1929,8 +1990,9 @@
       <c r="D41" s="1" t="str">
         <v>bm_bear_black_summon</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -1939,8 +2001,9 @@
       <c r="D42" s="1" t="str">
         <v>bm_bear_brown</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -1949,8 +2012,9 @@
       <c r="D43" s="1" t="str">
         <v>bm_bear_snow_unique</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -1959,8 +2023,9 @@
       <c r="D44" s="1" t="str">
         <v>bm_bear_spr_unique</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -1969,8 +2034,9 @@
       <c r="D45" s="1" t="str">
         <v>bm_draugr01</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -1979,8 +2045,9 @@
       <c r="D46" s="1" t="str">
         <v>bm_draugr_bloodskal</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -1989,8 +2056,9 @@
       <c r="D47" s="1" t="str">
         <v>bm_frost_boar</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -1999,8 +2067,9 @@
       <c r="D48" s="1" t="str">
         <v>bm_frost_giant</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2009,8 +2078,9 @@
       <c r="D49" s="1" t="str">
         <v>bm_hircine</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -2019,8 +2089,9 @@
       <c r="D50" s="1" t="str">
         <v>bm_hircine2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -2029,8 +2100,9 @@
       <c r="D51" s="1" t="str">
         <v>bm_hircine_huntaspect</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -2039,8 +2111,9 @@
       <c r="D52" s="1" t="str">
         <v>bm_hircine_spdaspect</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -2049,8 +2122,9 @@
       <c r="D53" s="1" t="str">
         <v>bm_hircine_straspect</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -2059,8 +2133,9 @@
       <c r="D54" s="1" t="str">
         <v>bm_horker</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2069,8 +2144,9 @@
       <c r="D55" s="1" t="str">
         <v>bm_horker_large</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -2079,8 +2155,9 @@
       <c r="D56" s="1" t="str">
         <v>bm_horker_swim_unique</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>56</v>
@@ -2089,8 +2166,9 @@
       <c r="D57" s="1" t="str">
         <v>bm_ice_troll</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>57</v>
@@ -2099,8 +2177,9 @@
       <c r="D58" s="1" t="str">
         <v>bm_ice_troll_sun</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -2109,8 +2188,9 @@
       <c r="D59" s="1" t="str">
         <v>bm_ice_troll_tough</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -2119,8 +2199,9 @@
       <c r="D60" s="1" t="str">
         <v>bm_icetroll_fg_uni</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>60</v>
@@ -2129,8 +2210,9 @@
       <c r="D61" s="1" t="str">
         <v>bm_riekling</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -2139,8 +2221,9 @@
       <c r="D62" s="1" t="str">
         <v>bm_riekling_be_unique</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>62</v>
@@ -2149,8 +2232,9 @@
       <c r="D63" s="1" t="str">
         <v>bm_riekling_be_unique1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>63</v>
@@ -2159,8 +2243,9 @@
       <c r="D64" s="1" t="str">
         <v>bm_riekling_be_unique2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>64</v>
@@ -2169,8 +2254,9 @@
       <c r="D65" s="1" t="str">
         <v>bm_riekling_be_unique3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -2179,8 +2265,9 @@
       <c r="D66" s="1" t="str">
         <v>bm_riekling_be_unique4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>66</v>
@@ -2189,8 +2276,9 @@
       <c r="D67" s="1" t="str">
         <v>bm_riekling_be_unique5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -2199,8 +2287,9 @@
       <c r="D68" s="1" t="str">
         <v>bm_riekling_boarmaster</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -2209,8 +2298,9 @@
       <c r="D69" s="1" t="str">
         <v>bm_riekling_dulk_unique</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -2219,8 +2309,9 @@
       <c r="D70" s="1" t="str">
         <v>bm_riekling_krish_uniqu</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>70</v>
@@ -2229,8 +2320,9 @@
       <c r="D71" s="1" t="str">
         <v>bm_riekling_mounted</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>71</v>
@@ -2239,8 +2331,9 @@
       <c r="D72" s="1" t="str">
         <v>bm_riekling_st_unique</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -2249,8 +2342,9 @@
       <c r="D73" s="1" t="str">
         <v>bm_sk_champ_bloodskal01</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -2259,8 +2353,9 @@
       <c r="D74" s="1" t="str">
         <v>bm_sk_champ_bloodskal02</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -2269,8 +2364,9 @@
       <c r="D75" s="1" t="str">
         <v xml:space="preserve">bm_skeleton_pirate </v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -2279,8 +2375,9 @@
       <c r="D76" s="1" t="str">
         <v>bm_skeleton_pirate_capt</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -2289,8 +2386,9 @@
       <c r="D77" s="1" t="str">
         <v>bm_spriggan</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -2299,8 +2397,9 @@
       <c r="D78" s="1" t="str">
         <v>bm_spriggan_co1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>78</v>
@@ -2309,8 +2408,9 @@
       <c r="D79" s="1" t="str">
         <v>bm_spriggan_co2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -2319,8 +2419,9 @@
       <c r="D80" s="1" t="str">
         <v>bm_spriggan_co3</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -2329,8 +2430,9 @@
       <c r="D81" s="1" t="str">
         <v>bm_spriggan_co4</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -2339,8 +2441,9 @@
       <c r="D82" s="1" t="str">
         <v>bm_spriggan_st_unique</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -2349,8 +2452,9 @@
       <c r="D83" s="1" t="str">
         <v>bm_udyrfrykte</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -2359,8 +2463,9 @@
       <c r="D84" s="1" t="str">
         <v>bm_werewolf_default</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>84</v>
@@ -2369,8 +2474,9 @@
       <c r="D85" s="1" t="str">
         <v>bm_werewolf_ritual</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>85</v>
@@ -2379,8 +2485,9 @@
       <c r="D86" s="1" t="str">
         <v>bm_wolf_bone_summon</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -2389,8 +2496,9 @@
       <c r="D87" s="1" t="str">
         <v>bm_wolf_caenlorn1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>87</v>
@@ -2399,8 +2507,9 @@
       <c r="D88" s="1" t="str">
         <v>bm_wolf_caenlorn2</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>88</v>
@@ -2409,8 +2518,9 @@
       <c r="D89" s="1" t="str">
         <v>bm_wolf_caenlorn3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>89</v>
@@ -2419,8 +2529,9 @@
       <c r="D90" s="1" t="str">
         <v>bm_wolf_grey</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>90</v>
@@ -2429,8 +2540,9 @@
       <c r="D91" s="1" t="str">
         <v>bm_wolf_grey_lvl_1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>91</v>
@@ -2439,8 +2551,9 @@
       <c r="D92" s="1" t="str">
         <v>bm_wolf_grey_summon</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>92</v>
@@ -2449,8 +2562,9 @@
       <c r="D93" s="1" t="str">
         <v>bm_wolf_hroldar</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>93</v>
@@ -2459,8 +2573,9 @@
       <c r="D94" s="1" t="str">
         <v>bm_wolf_red</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>94</v>
@@ -2469,8 +2584,9 @@
       <c r="D95" s="1" t="str">
         <v>bm_wolf_skeleton</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -2479,8 +2595,9 @@
       <c r="D96" s="1" t="str">
         <v>bm_wolf_snow_unique</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -2489,8 +2606,9 @@
       <c r="D97" s="1" t="str">
         <v>bonelord</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>97</v>
@@ -2499,8 +2617,9 @@
       <c r="D98" s="1" t="str">
         <v>bonelord_summon</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -2509,8 +2628,9 @@
       <c r="D99" s="1" t="str">
         <v>bonewalker</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>99</v>
@@ -2519,8 +2639,9 @@
       <c r="D100" s="1" t="str">
         <v>bonewalker_greater</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>100</v>
@@ -2529,8 +2650,9 @@
       <c r="D101" s="1" t="str">
         <v>bonewalker_greater_summ</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>101</v>
@@ -2539,8 +2661,9 @@
       <c r="D102" s="1" t="str">
         <v>bonewalker_summon</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>102</v>
@@ -2549,8 +2672,9 @@
       <c r="D103" s="1" t="str">
         <v>bonewalker_weak</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>103</v>
@@ -2559,8 +2683,9 @@
       <c r="D104" s="1" t="str">
         <v>centurion_mudan_unique</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>104</v>
@@ -2569,8 +2694,9 @@
       <c r="D105" s="1" t="str">
         <v>centurion_projectile</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>105</v>
@@ -2579,8 +2705,9 @@
       <c r="D106" s="1" t="str">
         <v>centurion_projectile_c</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>106</v>
@@ -2589,8 +2716,9 @@
       <c r="D107" s="1" t="str">
         <v>centurion_shock_baladas</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>107</v>
@@ -2599,8 +2727,9 @@
       <c r="D108" s="1" t="str">
         <v>centurion_sphere</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>108</v>
@@ -2609,8 +2738,9 @@
       <c r="D109" s="1" t="str">
         <v>centurion_sphere_bbot1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -2619,8 +2749,9 @@
       <c r="D110" s="1" t="str">
         <v>centurion_sphere_bbot5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -2629,8 +2760,9 @@
       <c r="D111" s="1" t="str">
         <v>centurion_sphere_bbot6</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>111</v>
@@ -2639,8 +2771,9 @@
       <c r="D112" s="1" t="str">
         <v>centurion_sphere_hts2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>112</v>
@@ -2649,8 +2782,9 @@
       <c r="D113" s="1" t="str">
         <v>centurion_sphere_nchur</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -2659,8 +2793,9 @@
       <c r="D114" s="1" t="str">
         <v>centurion_sphere_summon</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>114</v>
@@ -2669,8 +2804,9 @@
       <c r="D115" s="1" t="str">
         <v>centurion_spider</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>115</v>
@@ -2679,8 +2815,9 @@
       <c r="D116" s="1" t="str">
         <v>centurion_spider_bbot1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>116</v>
@@ -2689,8 +2826,9 @@
       <c r="D117" s="1" t="str">
         <v>centurion_spider_bbot3</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>117</v>
@@ -2699,8 +2837,9 @@
       <c r="D118" s="1" t="str">
         <v>centurion_spider_bbot7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>118</v>
@@ -2709,8 +2848,9 @@
       <c r="D119" s="1" t="str">
         <v>centurion_spider_nchur</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>119</v>
@@ -2719,8 +2859,9 @@
       <c r="D120" s="1" t="str">
         <v>centurion_spider_tga1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>120</v>
@@ -2729,8 +2870,9 @@
       <c r="D121" s="1" t="str">
         <v>centurion_spider_tga2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>121</v>
@@ -2739,8 +2881,9 @@
       <c r="D122" s="1" t="str">
         <v>centurion_steam</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -2749,8 +2892,9 @@
       <c r="D123" s="1" t="str">
         <v>centurion_steam_a_c</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>123</v>
@@ -2759,8 +2903,9 @@
       <c r="D124" s="1" t="str">
         <v>centurion_steam_advance</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>124</v>
@@ -2769,8 +2914,9 @@
       <c r="D125" s="1" t="str">
         <v>centurion_steam_bbot2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>125</v>
@@ -2779,8 +2925,9 @@
       <c r="D126" s="1" t="str">
         <v>centurion_steam_bbot4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>126</v>
@@ -2789,8 +2936,9 @@
       <c r="D127" s="1" t="str">
         <v>centurion_steam_bbot8</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>127</v>
@@ -2799,8 +2947,9 @@
       <c r="D128" s="1" t="str">
         <v>centurion_steam_c_l</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2809,8 +2958,9 @@
       <c r="D129" s="1" t="str">
         <v>centurion_steam_exhibit</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>129</v>
@@ -2819,8 +2969,9 @@
       <c r="D130" s="1" t="str">
         <v>centurion_steam_hts</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>130</v>
@@ -2829,8 +2980,9 @@
       <c r="D131" s="1" t="str">
         <v>centurion_steam_nchur</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>131</v>
@@ -2839,8 +2991,9 @@
       <c r="D132" s="1" t="str">
         <v>clannfear</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>132</v>
@@ -2849,8 +3002,9 @@
       <c r="D133" s="1" t="str">
         <v>clannfear_summon</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>133</v>
@@ -2859,8 +3013,9 @@
       <c r="D134" s="1" t="str">
         <v>cliff racer</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>134</v>
@@ -2869,8 +3024,9 @@
       <c r="D135" s="1" t="str">
         <v>cliff racer_blighted</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>135</v>
@@ -2879,8 +3035,9 @@
       <c r="D136" s="1" t="str">
         <v>cliff racer_diseased</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>136</v>
@@ -2889,8 +3046,9 @@
       <c r="D137" s="1" t="str">
         <v>corprus_lame</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>137</v>
@@ -2899,8 +3057,9 @@
       <c r="D138" s="1" t="str">
         <v>corprus_lame_fyr01</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>138</v>
@@ -2909,8 +3068,9 @@
       <c r="D139" s="1" t="str">
         <v>corprus_lame_fyr02</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>139</v>
@@ -2919,8 +3079,9 @@
       <c r="D140" s="1" t="str">
         <v>corprus_lame_fyr03</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>140</v>
@@ -2929,8 +3090,9 @@
       <c r="D141" s="1" t="str">
         <v>corprus_lame_fyr04</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>141</v>
@@ -2939,8 +3101,9 @@
       <c r="D142" s="1" t="str">
         <v>corprus_lame_morvayn</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>142</v>
@@ -2949,8 +3112,9 @@
       <c r="D143" s="1" t="str">
         <v>corprus_stalker</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>143</v>
@@ -2959,8 +3123,9 @@
       <c r="D144" s="1" t="str">
         <v>corprus_stalker_berwen</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>144</v>
@@ -2969,8 +3134,9 @@
       <c r="D145" s="1" t="str">
         <v>corprus_stalker_danar</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>145</v>
@@ -2979,8 +3145,9 @@
       <c r="D146" s="1" t="str">
         <v>corprus_stalker_fgcs</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>146</v>
@@ -2989,8 +3156,9 @@
       <c r="D147" s="1" t="str">
         <v>corprus_stalker_fyr01</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>147</v>
@@ -2999,8 +3167,9 @@
       <c r="D148" s="1" t="str">
         <v>corprus_stalker_fyr02</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>148</v>
@@ -3009,8 +3178,9 @@
       <c r="D149" s="1" t="str">
         <v>corprus_stalker_fyr03</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>149</v>
@@ -3019,8 +3189,9 @@
       <c r="D150" s="1" t="str">
         <v>corprus_stalker_morvayn</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>150</v>
@@ -3029,8 +3200,9 @@
       <c r="D151" s="1" t="str">
         <v>daedroth</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>151</v>
@@ -3039,8 +3211,9 @@
       <c r="D152" s="1" t="str">
         <v>daedroth_az</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>152</v>
@@ -3049,8 +3222,9 @@
       <c r="D153" s="1" t="str">
         <v>daedroth_baladas</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>153</v>
@@ -3059,8 +3233,9 @@
       <c r="D154" s="1" t="str">
         <v>daedroth_fg_nchur</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>154</v>
@@ -3069,8 +3244,9 @@
       <c r="D155" s="1" t="str">
         <v>daedroth_menta_unique</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>155</v>
@@ -3079,8 +3255,9 @@
       <c r="D156" s="1" t="str">
         <v>daedroth_summon</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>156</v>
@@ -3089,8 +3266,9 @@
       <c r="D157" s="1" t="str">
         <v>dagoth aladus</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>157</v>
@@ -3099,8 +3277,9 @@
       <c r="D158" s="1" t="str">
         <v>dagoth araynys</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>158</v>
@@ -3109,8 +3288,9 @@
       <c r="D159" s="1" t="str">
         <v>dagoth baler</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>159</v>
@@ -3119,8 +3299,9 @@
       <c r="D160" s="1" t="str">
         <v>dagoth daynil</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>160</v>
@@ -3129,8 +3310,9 @@
       <c r="D161" s="1" t="str">
         <v>dagoth delnus</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>161</v>
@@ -3139,8 +3321,9 @@
       <c r="D162" s="1" t="str">
         <v>dagoth drals</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>162</v>
@@ -3149,8 +3332,9 @@
       <c r="D163" s="1" t="str">
         <v>dagoth draven</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>163</v>
@@ -3159,8 +3343,9 @@
       <c r="D164" s="1" t="str">
         <v>dagoth elam</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>164</v>
@@ -3169,8 +3354,9 @@
       <c r="D165" s="1" t="str">
         <v>dagoth endus</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>165</v>
@@ -3179,8 +3365,9 @@
       <c r="D166" s="1" t="str">
         <v>dagoth fals</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>166</v>
@@ -3189,8 +3376,9 @@
       <c r="D167" s="1" t="str">
         <v>dagoth fandril</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>167</v>
@@ -3199,8 +3387,9 @@
       <c r="D168" s="1" t="str">
         <v>dagoth felmis</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>168</v>
@@ -3209,8 +3398,9 @@
       <c r="D169" s="1" t="str">
         <v>dagoth fervas</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>169</v>
@@ -3219,8 +3409,9 @@
       <c r="D170" s="1" t="str">
         <v>dagoth fovon</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>170</v>
@@ -3229,8 +3420,9 @@
       <c r="D171" s="1" t="str">
         <v>dagoth galmis</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>171</v>
@@ -3239,8 +3431,9 @@
       <c r="D172" s="1" t="str">
         <v>dagoth garel</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>172</v>
@@ -3249,8 +3442,9 @@
       <c r="D173" s="1" t="str">
         <v>dagoth gares</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>173</v>
@@ -3259,8 +3453,9 @@
       <c r="D174" s="1" t="str">
         <v>dagoth gilvoth</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>174</v>
@@ -3269,8 +3464,9 @@
       <c r="D175" s="1" t="str">
         <v>dagoth girer</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -3279,8 +3475,9 @@
       <c r="D176" s="1" t="str">
         <v>dagoth goral</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>176</v>
@@ -3289,8 +3486,9 @@
       <c r="D177" s="1" t="str">
         <v>dagoth ienas</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>177</v>
@@ -3299,8 +3497,9 @@
       <c r="D178" s="1" t="str">
         <v>dagoth irvyn</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>178</v>
@@ -3309,8 +3508,9 @@
       <c r="D179" s="1" t="str">
         <v>dagoth malan</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>179</v>
@@ -3319,8 +3519,9 @@
       <c r="D180" s="1" t="str">
         <v>dagoth mendras</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>180</v>
@@ -3329,8 +3530,9 @@
       <c r="D181" s="1" t="str">
         <v>dagoth molos</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>181</v>
@@ -3339,8 +3541,9 @@
       <c r="D182" s="1" t="str">
         <v>dagoth mulis</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>182</v>
@@ -3349,8 +3552,9 @@
       <c r="D183" s="1" t="str">
         <v>dagoth muthes</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>183</v>
@@ -3359,8 +3563,9 @@
       <c r="D184" s="1" t="str">
         <v>dagoth nilor</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>184</v>
@@ -3369,8 +3574,9 @@
       <c r="D185" s="1" t="str">
         <v>dagoth odros</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>185</v>
@@ -3379,8 +3585,9 @@
       <c r="D186" s="1" t="str">
         <v>dagoth ralas</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>186</v>
@@ -3389,8 +3596,9 @@
       <c r="D187" s="1" t="str">
         <v>dagoth rather</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>187</v>
@@ -3399,8 +3607,9 @@
       <c r="D188" s="1" t="str">
         <v>dagoth reler</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>188</v>
@@ -3409,8 +3618,9 @@
       <c r="D189" s="1" t="str">
         <v>dagoth soler</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>189</v>
@@ -3419,8 +3629,9 @@
       <c r="D190" s="1" t="str">
         <v>dagoth tanis</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>190</v>
@@ -3429,8 +3640,9 @@
       <c r="D191" s="1" t="str">
         <v>dagoth tureynul</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>191</v>
@@ -3439,8 +3651,9 @@
       <c r="D192" s="1" t="str">
         <v>dagoth ulen</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>192</v>
@@ -3449,8 +3662,9 @@
       <c r="D193" s="1" t="str">
         <v>dagoth uthol</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>193</v>
@@ -3459,8 +3673,9 @@
       <c r="D194" s="1" t="str">
         <v>dagoth uvil</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>194</v>
@@ -3469,8 +3684,9 @@
       <c r="D195" s="1" t="str">
         <v>dagoth vaner</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>195</v>
@@ -3479,8 +3695,9 @@
       <c r="D196" s="1" t="str">
         <v>dagoth velos</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>196</v>
@@ -3489,8 +3706,9 @@
       <c r="D197" s="1" t="str">
         <v>dagoth vemyn</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>197</v>
@@ -3499,8 +3717,9 @@
       <c r="D198" s="1" t="str">
         <v>dagoth_hlevul</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>198</v>
@@ -3509,8 +3728,9 @@
       <c r="D199" s="1" t="str">
         <v>dagoth_ur_1</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>199</v>
@@ -3519,8 +3739,9 @@
       <c r="D200" s="1" t="str">
         <v>dagoth_ur_2</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>200</v>
@@ -3529,8 +3750,9 @@
       <c r="D201" s="1" t="str">
         <v>dahrk mezalf</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>201</v>
@@ -3539,8 +3761,9 @@
       <c r="D202" s="1" t="str">
         <v>draugr</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>202</v>
@@ -3549,8 +3772,9 @@
       <c r="D203" s="1" t="str">
         <v>draugr_aesliip</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>203</v>
@@ -3559,8 +3783,9 @@
       <c r="D204" s="1" t="str">
         <v>draugr_co_3</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>204</v>
@@ -3569,8 +3794,9 @@
       <c r="D205" s="1" t="str">
         <v>draugr_valbrandr</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>205</v>
@@ -3579,8 +3805,9 @@
       <c r="D206" s="1" t="str">
         <v>dremora</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>206</v>
@@ -3589,8 +3816,9 @@
       <c r="D207" s="1" t="str">
         <v>dremora_gothren_guard1</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>207</v>
@@ -3599,8 +3827,9 @@
       <c r="D208" s="1" t="str">
         <v>dremora_gothren_guard2</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>208</v>
@@ -3609,8 +3838,9 @@
       <c r="D209" s="1" t="str">
         <v>dremora_lord</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>209</v>
@@ -3619,8 +3849,9 @@
       <c r="D210" s="1" t="str">
         <v>dremora_lord_khash_uni</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>210</v>
@@ -3629,8 +3860,9 @@
       <c r="D211" s="1" t="str">
         <v>dremora_special_fyr</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>211</v>
@@ -3639,8 +3871,9 @@
       <c r="D212" s="1" t="str">
         <v>dremora_summon</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>212</v>
@@ -3649,8 +3882,9 @@
       <c r="D213" s="1" t="str">
         <v>dremora_ttmg</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>213</v>
@@ -3659,8 +3893,9 @@
       <c r="D214" s="1" t="str">
         <v>dremora_ttpc</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>214</v>
@@ -3669,8 +3904,9 @@
       <c r="D215" s="1" t="str">
         <v>dreugh</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>215</v>
@@ -3679,8 +3915,9 @@
       <c r="D216" s="1" t="str">
         <v>dreugh_koal</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>216</v>
@@ -3689,8 +3926,9 @@
       <c r="D217" s="1" t="str">
         <v>durzog_diseased</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>217</v>
@@ -3699,8 +3937,9 @@
       <c r="D218" s="1" t="str">
         <v>durzog_war</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>218</v>
@@ -3709,8 +3948,9 @@
       <c r="D219" s="1" t="str">
         <v>durzog_war_trained</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>219</v>
@@ -3719,8 +3959,9 @@
       <c r="D220" s="1" t="str">
         <v>durzog_wild</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>220</v>
@@ -3729,8 +3970,9 @@
       <c r="D221" s="1" t="str">
         <v>durzog_wild_weaker</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>221</v>
@@ -3739,8 +3981,9 @@
       <c r="D222" s="1" t="str">
         <v>dwarven ghost</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>222</v>
@@ -3749,8 +3992,9 @@
       <c r="D223" s="1" t="str">
         <v>dwarven ghost_jeanne_u</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>223</v>
@@ -3759,8 +4003,9 @@
       <c r="D224" s="1" t="str">
         <v>dwarven ghost_radac</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>224</v>
@@ -3769,8 +4014,9 @@
       <c r="D225" s="1" t="str">
         <v>fabricant_hulkin_attack</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
         <v>225</v>
@@ -3779,8 +4025,9 @@
       <c r="D226" s="1" t="str">
         <v>fabricant_hulking</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>226</v>
@@ -3789,8 +4036,9 @@
       <c r="D227" s="1" t="str">
         <v>fabricant_hulking_attac</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>227</v>
@@ -3799,8 +4047,9 @@
       <c r="D228" s="1" t="str">
         <v>fabricant_hulking_c</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>228</v>
@@ -3809,8 +4058,9 @@
       <c r="D229" s="1" t="str">
         <v>fabricant_hulking_c_l</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>229</v>
@@ -3819,8 +4069,9 @@
       <c r="D230" s="1" t="str">
         <v>fabricant_hulking_ss</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>230</v>
@@ -3829,8 +4080,9 @@
       <c r="D231" s="1" t="str">
         <v>fabricant_machine_1</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>231</v>
@@ -3839,8 +4091,9 @@
       <c r="D232" s="1" t="str">
         <v>fabricant_summon</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>232</v>
@@ -3849,8 +4102,9 @@
       <c r="D233" s="1" t="str">
         <v>fabricant_verm_attack</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>233</v>
@@ -3859,8 +4113,9 @@
       <c r="D234" s="1" t="str">
         <v>fabricant_verminous</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>234</v>
@@ -3869,8 +4124,9 @@
       <c r="D235" s="1" t="str">
         <v>fabricant_verminous-rs</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>235</v>
@@ -3879,8 +4135,9 @@
       <c r="D236" s="1" t="str">
         <v>fabricant_verminous_c</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>236</v>
@@ -3889,8 +4146,9 @@
       <c r="D237" s="1" t="str">
         <v>gateway_haunt</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>237</v>
@@ -3899,8 +4157,9 @@
       <c r="D238" s="1" t="str">
         <v>glenmoril_raven</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>238</v>
@@ -3909,8 +4168,9 @@
       <c r="D239" s="1" t="str">
         <v>glenmoril_raven_cave</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>239</v>
@@ -3919,8 +4179,9 @@
       <c r="D240" s="1" t="str">
         <v>goblin_bruiser</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>240</v>
@@ -3929,8 +4190,9 @@
       <c r="D241" s="1" t="str">
         <v>goblin_footsoldier</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
         <v>241</v>
@@ -3939,8 +4201,9 @@
       <c r="D242" s="1" t="str">
         <v>goblin_grunt</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>242</v>
@@ -3949,8 +4212,9 @@
       <c r="D243" s="1" t="str">
         <v>goblin_handler</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>243</v>
@@ -3959,8 +4223,9 @@
       <c r="D244" s="1" t="str">
         <v>goblin_officer</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>244</v>
@@ -3969,8 +4234,9 @@
       <c r="D245" s="1" t="str">
         <v>goblin_officeruni</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>245</v>
@@ -3979,8 +4245,9 @@
       <c r="D246" s="1" t="str">
         <v>goblin_warchief1</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>246</v>
@@ -3989,8 +4256,9 @@
       <c r="D247" s="1" t="str">
         <v>goblin_warchief2</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>247</v>
@@ -3999,8 +4267,9 @@
       <c r="D248" s="1" t="str">
         <v>golden saint</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>248</v>
@@ -4009,8 +4278,9 @@
       <c r="D249" s="1" t="str">
         <v>golden saint_staada</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>249</v>
@@ -4019,8 +4289,9 @@
       <c r="D250" s="1" t="str">
         <v>golden saint_summon</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>250</v>
@@ -4029,8 +4300,9 @@
       <c r="D251" s="1" t="str">
         <v>golden saint_velas1</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>251</v>
@@ -4039,8 +4311,9 @@
       <c r="D252" s="1" t="str">
         <v>golden saint_velas2</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>252</v>
@@ -4049,8 +4322,9 @@
       <c r="D253" s="1" t="str">
         <v>guar</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>253</v>
@@ -4059,8 +4333,9 @@
       <c r="D254" s="1" t="str">
         <v>guar_feral</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>254</v>
@@ -4069,8 +4344,9 @@
       <c r="D255" s="1" t="str">
         <v>guar_hrmudcrabnest</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>255</v>
@@ -4079,8 +4355,9 @@
       <c r="D256" s="1" t="str">
         <v>guar_llovyn_unique</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>256</v>
@@ -4089,8 +4366,9 @@
       <c r="D257" s="1" t="str">
         <v>guar_pack</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>257</v>
@@ -4099,8 +4377,9 @@
       <c r="D258" s="1" t="str">
         <v>guar_pack_tarvyn_unique</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>258</v>
@@ -4109,8 +4388,9 @@
       <c r="D259" s="1" t="str">
         <v>guar_rollie_unique</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>259</v>
@@ -4119,8 +4399,9 @@
       <c r="D260" s="1" t="str">
         <v>guar_white_unique</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>260</v>
@@ -4129,8 +4410,9 @@
       <c r="D261" s="1" t="str">
         <v>heart_akulakhan</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>261</v>
@@ -4139,8 +4421,9 @@
       <c r="D262" s="1" t="str">
         <v>hunger</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>262</v>
@@ -4149,8 +4432,9 @@
       <c r="D263" s="1" t="str">
         <v>hunger_audenian</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>263</v>
@@ -4159,8 +4443,9 @@
       <c r="D264" s="1" t="str">
         <v>hunger_az_01</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>264</v>
@@ -4169,8 +4454,9 @@
       <c r="D265" s="1" t="str">
         <v>hunger_az_02</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>265</v>
@@ -4179,8 +4465,9 @@
       <c r="D266" s="1" t="str">
         <v>hunger_fghl</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>266</v>
@@ -4189,8 +4476,9 @@
       <c r="D267" s="1" t="str">
         <v>hunger_summon</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>267</v>
@@ -4199,8 +4487,9 @@
       <c r="D268" s="1" t="str">
         <v>imperfect</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>268</v>
@@ -4209,8 +4498,9 @@
       <c r="D269" s="1" t="str">
         <v>kagouti</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>269</v>
@@ -4219,8 +4509,9 @@
       <c r="D270" s="1" t="str">
         <v>kagouti_blighted</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>270</v>
@@ -4229,8 +4520,9 @@
       <c r="D271" s="1" t="str">
         <v>kagouti_diseased</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>271</v>
@@ -4239,8 +4531,9 @@
       <c r="D272" s="1" t="str">
         <v>kagouti_hrk</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>272</v>
@@ -4249,8 +4542,9 @@
       <c r="D273" s="1" t="str">
         <v>kagouti_mating</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1" t="s">
         <v>273</v>
@@ -4259,8 +4553,9 @@
       <c r="D274" s="1" t="str">
         <v>kwama forager</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>274</v>
@@ -4269,8 +4564,9 @@
       <c r="D275" s="1" t="str">
         <v>kwama forager blighted</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>275</v>
@@ -4279,8 +4575,9 @@
       <c r="D276" s="1" t="str">
         <v>kwama forager_tb</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>276</v>
@@ -4289,8 +4586,9 @@
       <c r="D277" s="1" t="str">
         <v>kwama queen</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>277</v>
@@ -4299,8 +4597,9 @@
       <c r="D278" s="1" t="str">
         <v>kwama queen_abaesen</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>278</v>
@@ -4309,8 +4608,9 @@
       <c r="D279" s="1" t="str">
         <v>kwama queen_ahanibi</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>279</v>
@@ -4319,8 +4619,9 @@
       <c r="D280" s="1" t="str">
         <v>kwama queen_akimaes</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>280</v>
@@ -4329,8 +4630,9 @@
       <c r="D281" s="1" t="str">
         <v>kwama queen_eluba</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>281</v>
@@ -4339,8 +4641,9 @@
       <c r="D282" s="1" t="str">
         <v>kwama queen_eretammus</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>282</v>
@@ -4349,8 +4652,9 @@
       <c r="D283" s="1" t="str">
         <v>kwama queen_gnisis</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>283</v>
@@ -4359,8 +4663,9 @@
       <c r="D284" s="1" t="str">
         <v>kwama queen_hairat</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>284</v>
@@ -4369,8 +4674,9 @@
       <c r="D285" s="1" t="str">
         <v>kwama queen_hhem</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>285</v>
@@ -4379,8 +4685,9 @@
       <c r="D286" s="1" t="str">
         <v>kwama queen_madas</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>286</v>
@@ -4389,8 +4696,9 @@
       <c r="D287" s="1" t="str">
         <v>kwama queen_maesa</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>287</v>
@@ -4399,8 +4707,9 @@
       <c r="D288" s="1" t="str">
         <v>kwama queen_matus</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>288</v>
@@ -4409,8 +4718,9 @@
       <c r="D289" s="1" t="str">
         <v>kwama queen_mudan</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1" t="s">
         <v>289</v>
@@ -4419,8 +4729,9 @@
       <c r="D290" s="1" t="str">
         <v>kwama queen_mudan_c</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>290</v>
@@ -4429,8 +4740,9 @@
       <c r="D291" s="1" t="str">
         <v>kwama queen_panabanit</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>291</v>
@@ -4439,8 +4751,9 @@
       <c r="D292" s="1" t="str">
         <v>kwama queen_sarimisun</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>292</v>
@@ -4449,8 +4762,9 @@
       <c r="D293" s="1" t="str">
         <v>kwama queen_shurdan</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>293</v>
@@ -4459,8 +4773,9 @@
       <c r="D294" s="1" t="str">
         <v>kwama queen_shurdan_c</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>294</v>
@@ -4469,8 +4784,9 @@
       <c r="D295" s="1" t="str">
         <v>kwama queen_sinamusa</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>295</v>
@@ -4479,8 +4795,9 @@
       <c r="D296" s="1" t="str">
         <v>kwama queen_zalkin</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>296</v>
@@ -4489,8 +4806,9 @@
       <c r="D297" s="1" t="str">
         <v>kwama warrior</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>0</v>
@@ -4499,8 +4817,9 @@
       <c r="D298" s="1" t="str">
         <v>kwama warrior blighted</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>297</v>
@@ -4509,8 +4828,9 @@
       <c r="D299" s="1" t="str">
         <v>kwama warrior shurdan</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>298</v>
@@ -4519,8 +4839,9 @@
       <c r="D300" s="1" t="str">
         <v>kwama worker</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>299</v>
@@ -4529,8 +4850,9 @@
       <c r="D301" s="1" t="str">
         <v>kwama worker blighted</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>300</v>
@@ -4539,8 +4861,9 @@
       <c r="D302" s="1" t="str">
         <v>kwama worker diseased</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>301</v>
@@ -4549,8 +4872,9 @@
       <c r="D303" s="1" t="str">
         <v>kwama worker entrance</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>302</v>
@@ -4559,8 +4883,9 @@
       <c r="D304" s="1" t="str">
         <v>lich</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>303</v>
@@ -4569,8 +4894,9 @@
       <c r="D305" s="1" t="str">
         <v>lich_barilzar</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1" t="s">
         <v>304</v>
@@ -4579,8 +4905,9 @@
       <c r="D306" s="1" t="str">
         <v>lich_profane_unique</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>305</v>
@@ -4589,8 +4916,9 @@
       <c r="D307" s="1" t="str">
         <v>lich_relvel</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>306</v>
@@ -4599,8 +4927,9 @@
       <c r="D308" s="1" t="str">
         <v>lustidrike</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>307</v>
@@ -4609,8 +4938,9 @@
       <c r="D309" s="1" t="str">
         <v>mudcrab</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>308</v>
@@ -4619,8 +4949,9 @@
       <c r="D310" s="1" t="str">
         <v>mudcrab-diseased</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>309</v>
@@ -4629,8 +4960,9 @@
       <c r="D311" s="1" t="str">
         <v>mudcrab_hrmudcrabnest</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>310</v>
@@ -4639,8 +4971,9 @@
       <c r="D312" s="1" t="str">
         <v>mudcrab_unique</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>311</v>
@@ -4649,8 +4982,9 @@
       <c r="D313" s="1" t="str">
         <v>netch_betty</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>312</v>
@@ -4659,8 +4993,9 @@
       <c r="D314" s="1" t="str">
         <v>netch_betty_ilgn</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>313</v>
@@ -4669,8 +5004,9 @@
       <c r="D315" s="1" t="str">
         <v>netch_betty_ranched</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>315</v>
@@ -4679,8 +5015,9 @@
       <c r="D316" s="1" t="str">
         <v>netch_bull</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>316</v>
@@ -4689,8 +5026,9 @@
       <c r="D317" s="1" t="str">
         <v>netch_bull_ilgn</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>317</v>
@@ -4699,8 +5037,9 @@
       <c r="D318" s="1" t="str">
         <v>netch_bull_ranched</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>314</v>
@@ -4709,8 +5048,9 @@
       <c r="D319" s="1" t="str">
         <v>netch_giant_unique</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>318</v>
@@ -4719,8 +5059,9 @@
       <c r="D320" s="1" t="str">
         <v>nix-hound</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>319</v>
@@ -4729,8 +5070,9 @@
       <c r="D321" s="1" t="str">
         <v>nix-hound blighted</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1" t="s">
         <v>320</v>
@@ -4739,8 +5081,9 @@
       <c r="D322" s="1" t="str">
         <v>ogrim</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>321</v>
@@ -4749,8 +5092,9 @@
       <c r="D323" s="1" t="str">
         <v>ogrim titan</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>322</v>
@@ -4759,8 +5103,9 @@
       <c r="D324" s="1" t="str">
         <v>ogrim titan_velas</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>323</v>
@@ -4769,8 +5114,9 @@
       <c r="D325" s="1" t="str">
         <v>ogrim_az</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>324</v>
@@ -4779,8 +5125,9 @@
       <c r="D326" s="1" t="str">
         <v>rat</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>325</v>
@@ -4789,8 +5136,9 @@
       <c r="D327" s="1" t="str">
         <v>rat_blighted</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>326</v>
@@ -4799,8 +5147,9 @@
       <c r="D328" s="1" t="str">
         <v>rat_cave_fgrh</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>327</v>
@@ -4809,8 +5158,9 @@
       <c r="D329" s="1" t="str">
         <v>rat_cave_fgt</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>328</v>
@@ -4819,8 +5169,9 @@
       <c r="D330" s="1" t="str">
         <v>rat_cave_hhte1</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>329</v>
@@ -4829,8 +5180,9 @@
       <c r="D331" s="1" t="str">
         <v>rat_cave_hhte2</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>330</v>
@@ -4839,8 +5191,9 @@
       <c r="D332" s="1" t="str">
         <v>rat_diseased</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>331</v>
@@ -4849,8 +5202,9 @@
       <c r="D333" s="1" t="str">
         <v>rat_pack_rerlas</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="1"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>332</v>
@@ -4859,8 +5213,9 @@
       <c r="D334" s="1" t="str">
         <v>rat_plague</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>333</v>
@@ -4869,8 +5224,9 @@
       <c r="D335" s="1" t="str">
         <v>rat_plague_hall1</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>334</v>
@@ -4879,8 +5235,9 @@
       <c r="D336" s="1" t="str">
         <v>rat_plague_hall1a</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>335</v>
@@ -4889,8 +5246,9 @@
       <c r="D337" s="1" t="str">
         <v>rat_plague_hall2</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1" t="s">
         <v>336</v>
@@ -4899,8 +5257,9 @@
       <c r="D338" s="1" t="str">
         <v>rat_rerlas</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
         <v>337</v>
@@ -4909,8 +5268,9 @@
       <c r="D339" s="1" t="str">
         <v>rat_telvanni_unique</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>338</v>
@@ -4919,8 +5279,9 @@
       <c r="D340" s="1" t="str">
         <v>rat_telvanni_unique_2</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>339</v>
@@ -4929,8 +5290,9 @@
       <c r="D341" s="1" t="str">
         <v>scamp</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>340</v>
@@ -4939,8 +5301,9 @@
       <c r="D342" s="1" t="str">
         <v>scamp_creeper</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>341</v>
@@ -4949,8 +5312,9 @@
       <c r="D343" s="1" t="str">
         <v>scamp_mg_apprentice</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>342</v>
@@ -4959,8 +5323,9 @@
       <c r="D344" s="1" t="str">
         <v>scamp_summon</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>343</v>
@@ -4969,8 +5334,9 @@
       <c r="D345" s="1" t="str">
         <v>scrib</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>344</v>
@@ -4979,8 +5345,9 @@
       <c r="D346" s="1" t="str">
         <v>scrib blighted</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>345</v>
@@ -4989,8 +5356,9 @@
       <c r="D347" s="1" t="str">
         <v>scrib diseased</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>346</v>
@@ -4999,8 +5367,9 @@
       <c r="D348" s="1" t="str">
         <v>scrib_rerlas</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>347</v>
@@ -5009,8 +5378,9 @@
       <c r="D349" s="1" t="str">
         <v>scrib_vaba-amus</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>348</v>
@@ -5019,8 +5389,9 @@
       <c r="D350" s="1" t="str">
         <v>shalk</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>349</v>
@@ -5029,8 +5400,9 @@
       <c r="D351" s="1" t="str">
         <v>shalk_blighted</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>350</v>
@@ -5039,8 +5411,9 @@
       <c r="D352" s="1" t="str">
         <v>shalk_diseased</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
         <v>351</v>
@@ -5049,8 +5422,9 @@
       <c r="D353" s="1" t="str">
         <v>shalk_diseased_hram</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1" t="s">
         <v>352</v>
@@ -5059,8 +5433,9 @@
       <c r="D354" s="1" t="str">
         <v>skeleton</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>353</v>
@@ -5069,8 +5444,9 @@
       <c r="D355" s="1" t="str">
         <v>skeleton archer</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>354</v>
@@ -5079,8 +5455,9 @@
       <c r="D356" s="1" t="str">
         <v>skeleton champ_sandas00</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
         <v>355</v>
@@ -5089,8 +5466,9 @@
       <c r="D357" s="1" t="str">
         <v>skeleton champ_sandas10</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
         <v>356</v>
@@ -5099,8 +5477,9 @@
       <c r="D358" s="1" t="str">
         <v>skeleton champion</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
         <v>357</v>
@@ -5109,8 +5488,9 @@
       <c r="D359" s="1" t="str">
         <v>skeleton entrance</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>358</v>
@@ -5119,8 +5499,9 @@
       <c r="D360" s="1" t="str">
         <v xml:space="preserve">skeleton nord </v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>359</v>
@@ -5129,8 +5510,9 @@
       <c r="D361" s="1" t="str">
         <v>skeleton nord_2</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>360</v>
@@ -5139,8 +5521,9 @@
       <c r="D362" s="1" t="str">
         <v>skeleton warrior</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
         <v>361</v>
@@ -5149,8 +5532,9 @@
       <c r="D363" s="1" t="str">
         <v>skeleton_aldredaynia</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>362</v>
@@ -5159,8 +5543,9 @@
       <c r="D364" s="1" t="str">
         <v>skeleton_relvel</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>363</v>
@@ -5169,8 +5554,9 @@
       <c r="D365" s="1" t="str">
         <v>skeleton_stahl_uni</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>364</v>
@@ -5179,8 +5565,9 @@
       <c r="D366" s="1" t="str">
         <v>skeleton_summon</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="1"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>365</v>
@@ -5189,8 +5576,9 @@
       <c r="D367" s="1" t="str">
         <v>skeleton_vemynal</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>366</v>
@@ -5199,8 +5587,9 @@
       <c r="D368" s="1" t="str">
         <v>skeleton_weak</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
         <v>367</v>
@@ -5209,8 +5598,9 @@
       <c r="D369" s="1" t="str">
         <v>slaughterfish</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1" t="s">
         <v>368</v>
@@ -5219,8 +5609,9 @@
       <c r="D370" s="1" t="str">
         <v>slaughterfish_hr_sfavd</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>369</v>
@@ -5229,8 +5620,9 @@
       <c r="D371" s="1" t="str">
         <v>slaughterfish_small</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
         <v>370</v>
@@ -5239,8 +5631,9 @@
       <c r="D372" s="1" t="str">
         <v>vivec_god</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>371</v>
@@ -5249,8 +5642,9 @@
       <c r="D373" s="1" t="str">
         <v>winged twilight</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
         <v>372</v>
@@ -5259,8 +5653,9 @@
       <c r="D374" s="1" t="str">
         <v>winged twilight_grunda_</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>373</v>
@@ -5269,8 +5664,9 @@
       <c r="D375" s="1" t="str">
         <v>winged twilight_summon</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>374</v>
@@ -5279,8 +5675,9 @@
       <c r="D376" s="1" t="str">
         <v>worm lord</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
         <v>375</v>
@@ -5289,8 +5686,9 @@
       <c r="D377" s="1" t="str">
         <v>wraith_sul_senipul</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
         <v>376</v>
@@ -5299,12 +5697,14 @@
       <c r="D378" s="1" t="str">
         <v>yagrum bagarn</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="1"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
